--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$56</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="476">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-beta</t>
+    <t>0.1.1-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-04T18:59:45-06:00</t>
+    <t>2023-01-05T09:18:04-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -251,6 +251,9 @@
     <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
+    <t>Mapping: VDIF to MHV-PHR</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -263,13 +266,16 @@
     <t>A grouping of people or organizations with a common purpose</t>
   </si>
   <si>
-    <t>\-</t>
+    <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.</t>
   </si>
   <si>
     <t>(also see master files messages)</t>
   </si>
   <si>
     <t>Organization(classCode=ORG, determinerCode=INST)</t>
+  </si>
+  <si>
+    <t>labSiteId</t>
   </si>
   <si>
     <t>Organization.id</t>
@@ -495,7 +501,7 @@
     <t>.scopes[Role](classCode=IDENT)</t>
   </si>
   <si>
-    <t>./Identifiers</t>
+    <t>n/a</t>
   </si>
   <si>
     <t>FiveWs.identifier</t>
@@ -517,9 +523,6 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Organization.identifier.extension</t>
   </si>
   <si>
@@ -566,6 +569,9 @@
     <t>Role.code or implied by context</t>
   </si>
   <si>
+    <t>official</t>
+  </si>
+  <si>
     <t>Organization.identifier.type</t>
   </si>
   <si>
@@ -628,6 +634,9 @@
   </si>
   <si>
     <t>./IdentifierType</t>
+  </si>
+  <si>
+    <t>https://johnmoehrke.github.io/MHV-PHR/labSiteId</t>
   </si>
   <si>
     <t>Organization.identifier.value</t>
@@ -773,6 +782,9 @@
     <t>FiveWs.status</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>Organization.type</t>
   </si>
   <si>
@@ -829,7 +841,10 @@
     <t>.name</t>
   </si>
   <si>
-    <t>.PreferredName/Name</t>
+    <t>./PrimaryAddress and ./OtherAddresses</t>
+  </si>
+  <si>
+    <t>Lab Site {number}</t>
   </si>
   <si>
     <t>Organization.alias</t>
@@ -1045,9 +1060,6 @@
     <t>.address</t>
   </si>
   <si>
-    <t>./PrimaryAddress and ./OtherAddresses</t>
-  </si>
-  <si>
     <t>Organization.address.id</t>
   </si>
   <si>
@@ -1252,7 +1264,7 @@
     <t>AD.part[parttype = STA]</t>
   </si>
   <si>
-    <t>./Region</t>
+    <t>./Sites</t>
   </si>
   <si>
     <t>Organization.address.postalCode</t>
@@ -1811,7 +1823,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN56"/>
+  <dimension ref="A1:AO56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1859,6 +1871,7 @@
     <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="211.14453125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="46.8671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1982,6 +1995,9 @@
       <c r="AN1" t="s" s="1">
         <v>76</v>
       </c>
+      <c r="AO1" t="s" s="1">
+        <v>77</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
@@ -1992,6283 +2008,6446 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>30</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO2" t="s" s="2">
+        <v>85</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO3" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO4" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO5" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO6" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO7" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO8" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO9" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO10" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
+      </c>
+      <c r="AO11" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO12" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO13" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO14" t="s" s="2">
+        <v>177</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO15" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO16" t="s" s="2">
+        <v>199</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO18" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
+      </c>
+      <c r="AO20" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
+      </c>
+      <c r="AO21" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M22" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="P22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q22" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="N22" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="P22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q22" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
+      </c>
+      <c r="AO22" t="s" s="2">
+        <v>245</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
+      </c>
+      <c r="AO23" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO24" t="s" s="2">
+        <v>265</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO25" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO26" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO27" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO28" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO29" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO30" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO31" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO32" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO33" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>329</v>
+        <v>155</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO34" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO35" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO36" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO37" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO38" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO39" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO40" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO41" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO42" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO43" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO44" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="P48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="P52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF52" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="Z52" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>441</v>
-      </c>
       <c r="AG52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="P53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="P54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="P56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN56">
+  <autoFilter ref="A1:AO56">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="477">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1-beta</t>
+    <t>0.1.2-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-05T09:18:04-06:00</t>
+    <t>2023-01-10T07:11:45-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -86,7 +86,8 @@
   <si>
     <t>A profile on the Organization resource for MHV PHR exposing Organization using FHIR API.
 - based on US-Core for Organization
-- used for Lab Site. In FHIR R4, the Lab site needs to go into .performer which can't take a Location. (TechnicalDebt)</t>
+- used for Lab Site. In FHIR R4, the Lab site needs to go into .performer which can't take a Location. (TechnicalDebt)
+Map to [VDIF labSiteID](StructureDefinition-VA.MHV.PHR.organization-mappings.html#mappings-for-vdif-to-mhv-phr-labsiteid)</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -261,6 +262,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>A grouping of people or organizations with a common purpose</t>
@@ -569,7 +574,7 @@
     <t>Role.code or implied by context</t>
   </si>
   <si>
-    <t>official</t>
+    <t>`official`</t>
   </si>
   <si>
     <t>Organization.identifier.type</t>
@@ -636,7 +641,7 @@
     <t>./IdentifierType</t>
   </si>
   <si>
-    <t>https://johnmoehrke.github.io/MHV-PHR/labSiteId</t>
+    <t>`https://johnmoehrke.github.io/MHV-PHR/labSiteId`</t>
   </si>
   <si>
     <t>Organization.identifier.value</t>
@@ -782,7 +787,7 @@
     <t>FiveWs.status</t>
   </si>
   <si>
-    <t>true</t>
+    <t>`true`</t>
   </si>
   <si>
     <t>Organization.type</t>
@@ -1871,7 +1876,7 @@
     <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="211.14453125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="46.8671875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="48.1484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2027,13 +2032,13 @@
         <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2099,10 +2104,10 @@
         <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>30</v>
@@ -2111,15 +2116,15 @@
         <v>78</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2130,7 +2135,7 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>78</v>
@@ -2139,19 +2144,19 @@
         <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2201,13 +2206,13 @@
         <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>78</v>
@@ -2233,10 +2238,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2247,7 +2252,7 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>78</v>
@@ -2256,16 +2261,16 @@
         <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2316,19 +2321,19 @@
         <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>78</v>
@@ -2348,10 +2353,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2362,28 +2367,28 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2433,19 +2438,19 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>78</v>
@@ -2465,10 +2470,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2479,7 +2484,7 @@
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>78</v>
@@ -2491,16 +2496,16 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2526,13 +2531,13 @@
         <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>78</v>
@@ -2550,19 +2555,19 @@
         <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
@@ -2582,21 +2587,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>78</v>
@@ -2608,16 +2613,16 @@
         <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2667,25 +2672,25 @@
         <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>78</v>
@@ -2699,14 +2704,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2725,16 +2730,16 @@
         <v>78</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2784,7 +2789,7 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2802,7 +2807,7 @@
         <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>78</v>
@@ -2816,14 +2821,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2842,16 +2847,16 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2901,7 +2906,7 @@
         <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2913,13 +2918,13 @@
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>78</v>
@@ -2933,14 +2938,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2953,25 +2958,25 @@
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>78</v>
@@ -3020,7 +3025,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3032,13 +3037,13 @@
         <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>78</v>
@@ -3052,10 +3057,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3069,28 +3074,28 @@
         <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>78</v>
@@ -3127,17 +3132,17 @@
         <v>78</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3146,22 +3151,22 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>78</v>
@@ -3169,10 +3174,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3183,7 +3188,7 @@
         <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
@@ -3195,13 +3200,13 @@
         <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3252,13 +3257,13 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>78</v>
@@ -3270,7 +3275,7 @@
         <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>78</v>
@@ -3284,14 +3289,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3310,16 +3315,16 @@
         <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3357,19 +3362,19 @@
         <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3381,13 +3386,13 @@
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>78</v>
@@ -3401,10 +3406,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3415,31 +3420,31 @@
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>78</v>
@@ -3464,13 +3469,13 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>78</v>
@@ -3488,25 +3493,25 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>78</v>
@@ -3515,15 +3520,15 @@
         <v>78</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3534,7 +3539,7 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
@@ -3543,22 +3548,22 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>78</v>
@@ -3583,13 +3588,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3607,25 +3612,25 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3639,10 +3644,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3653,31 +3658,31 @@
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>78</v>
@@ -3690,7 +3695,7 @@
         <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>78</v>
@@ -3726,42 +3731,42 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3772,28 +3777,28 @@
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3807,7 +3812,7 @@
         <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>78</v>
@@ -3843,42 +3848,42 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3889,7 +3894,7 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
@@ -3898,16 +3903,16 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3958,28 +3963,28 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -3990,10 +3995,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4004,7 +4009,7 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
@@ -4013,19 +4018,19 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4075,28 +4080,28 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -4107,13 +4112,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>78</v>
@@ -4123,29 +4128,29 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -4155,7 +4160,7 @@
         <v>78</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>78</v>
@@ -4194,7 +4199,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4203,22 +4208,22 @@
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>78</v>
@@ -4226,13 +4231,13 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>78</v>
@@ -4242,7 +4247,7 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -4251,20 +4256,20 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -4274,7 +4279,7 @@
         <v>78</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>78</v>
@@ -4313,7 +4318,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4322,22 +4327,22 @@
         <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>78</v>
@@ -4345,10 +4350,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4356,120 +4361,120 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="P22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q22" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH22" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I22" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="P22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q22" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4489,22 +4494,22 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4529,13 +4534,13 @@
         <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>78</v>
@@ -4553,7 +4558,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4565,19 +4570,19 @@
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>78</v>
@@ -4585,10 +4590,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4596,34 +4601,34 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4672,42 +4677,42 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4730,19 +4735,19 @@
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4791,7 +4796,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4803,13 +4808,13 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
@@ -4823,10 +4828,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4840,7 +4845,7 @@
         <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>78</v>
@@ -4849,19 +4854,19 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4910,7 +4915,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4919,19 +4924,19 @@
         <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -4942,10 +4947,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4956,7 +4961,7 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
@@ -4968,13 +4973,13 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5025,13 +5030,13 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
@@ -5043,7 +5048,7 @@
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -5057,14 +5062,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5083,16 +5088,16 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5130,19 +5135,19 @@
         <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5154,13 +5159,13 @@
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
@@ -5174,10 +5179,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5188,25 +5193,25 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5233,13 +5238,13 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -5257,28 +5262,28 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -5289,10 +5294,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5303,31 +5308,31 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -5376,28 +5381,28 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -5408,10 +5413,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5422,31 +5427,31 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -5471,13 +5476,13 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
@@ -5495,28 +5500,28 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5527,10 +5532,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5541,7 +5546,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5550,19 +5555,19 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5612,25 +5617,25 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5644,10 +5649,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5658,7 +5663,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5667,16 +5672,16 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5727,28 +5732,28 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5759,10 +5764,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5776,7 +5781,7 @@
         <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>78</v>
@@ -5785,19 +5790,19 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5846,7 +5851,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5855,19 +5860,19 @@
         <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -5878,10 +5883,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5892,7 +5897,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -5904,13 +5909,13 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5961,13 +5966,13 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
@@ -5979,7 +5984,7 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5993,14 +5998,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6019,16 +6024,16 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6066,19 +6071,19 @@
         <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6090,13 +6095,13 @@
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -6110,10 +6115,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6124,31 +6129,31 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6161,7 +6166,7 @@
         <v>78</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>78</v>
@@ -6173,13 +6178,13 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
@@ -6197,28 +6202,28 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -6229,10 +6234,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6243,7 +6248,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -6252,19 +6257,19 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6278,7 +6283,7 @@
         <v>78</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>78</v>
@@ -6290,13 +6295,13 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
@@ -6314,25 +6319,25 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -6346,10 +6351,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6360,7 +6365,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -6369,22 +6374,22 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6397,7 +6402,7 @@
         <v>78</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>78</v>
@@ -6433,25 +6438,25 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6465,10 +6470,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6479,25 +6484,25 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6512,7 +6517,7 @@
         <v>78</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>78</v>
@@ -6548,7 +6553,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6560,16 +6565,16 @@
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -6580,39 +6585,39 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6627,7 +6632,7 @@
         <v>78</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>78</v>
@@ -6663,28 +6668,28 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -6695,21 +6700,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6718,19 +6723,19 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6744,7 +6749,7 @@
         <v>78</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>78</v>
@@ -6780,25 +6785,25 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6812,39 +6817,39 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6871,13 +6876,13 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -6895,28 +6900,28 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -6927,39 +6932,39 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6974,7 +6979,7 @@
         <v>78</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>78</v>
@@ -7010,28 +7015,28 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -7042,10 +7047,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7056,28 +7061,28 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7127,28 +7132,28 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7159,10 +7164,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7173,7 +7178,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -7182,20 +7187,20 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7208,7 +7213,7 @@
         <v>78</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>78</v>
@@ -7244,28 +7249,28 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7276,10 +7281,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7290,7 +7295,7 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -7299,20 +7304,20 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -7361,28 +7366,28 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7393,10 +7398,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7419,19 +7424,19 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7480,7 +7485,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7492,13 +7497,13 @@
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7512,10 +7517,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7526,7 +7531,7 @@
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
@@ -7538,13 +7543,13 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7595,13 +7600,13 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
@@ -7613,7 +7618,7 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7627,14 +7632,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7653,16 +7658,16 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7712,7 +7717,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7724,13 +7729,13 @@
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7744,14 +7749,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7764,25 +7769,25 @@
         <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -7831,7 +7836,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7843,13 +7848,13 @@
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7863,10 +7868,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7877,7 +7882,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -7889,17 +7894,17 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -7924,13 +7929,13 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
@@ -7948,25 +7953,25 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -7980,10 +7985,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7994,7 +7999,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -8006,17 +8011,17 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -8065,25 +8070,25 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -8097,10 +8102,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8123,17 +8128,17 @@
         <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -8182,7 +8187,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8194,13 +8199,13 @@
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -8214,10 +8219,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8228,7 +8233,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -8240,17 +8245,17 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8299,25 +8304,25 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
@@ -8331,10 +8336,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8357,17 +8362,17 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8416,7 +8421,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8428,13 +8433,13 @@
         <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T07:11:45-06:00</t>
+    <t>2023-01-10T08:15:50-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="479">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2-beta</t>
+    <t>0.1.3-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T08:15:50-06:00</t>
+    <t>2023-01-11T06:10:13-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -271,7 +271,7 @@
     <t>A grouping of people or organizations with a common purpose</t>
   </si>
   <si>
-    <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.</t>
+    <t>\-</t>
   </si>
   <si>
     <t>(also see master files messages)</t>
@@ -506,7 +506,7 @@
     <t>.scopes[Role](classCode=IDENT)</t>
   </si>
   <si>
-    <t>n/a</t>
+    <t>./Identifiers</t>
   </si>
   <si>
     <t>FiveWs.identifier</t>
@@ -526,6 +526,9 @@
   </si>
   <si>
     <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
   <si>
     <t>Organization.identifier.extension</t>
@@ -846,7 +849,7 @@
     <t>.name</t>
   </si>
   <si>
-    <t>./PrimaryAddress and ./OtherAddresses</t>
+    <t>.PreferredName/Name</t>
   </si>
   <si>
     <t>Lab Site {number}</t>
@@ -1065,6 +1068,9 @@
     <t>.address</t>
   </si>
   <si>
+    <t>./PrimaryAddress and ./OtherAddresses</t>
+  </si>
+  <si>
     <t>Organization.address.id</t>
   </si>
   <si>
@@ -1269,7 +1275,7 @@
     <t>AD.part[parttype = STA]</t>
   </si>
   <si>
-    <t>./Sites</t>
+    <t>./Region</t>
   </si>
   <si>
     <t>Organization.address.postalCode</t>
@@ -2040,7 +2046,9 @@
       <c r="M2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="N2" s="2"/>
+      <c r="N2" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
         <v>78</v>
@@ -3275,7 +3283,7 @@
         <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>78</v>
@@ -3289,10 +3297,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3321,7 +3329,7 @@
         <v>135</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N13" t="s" s="2">
         <v>137</v>
@@ -3362,10 +3370,10 @@
         <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>78</v>
@@ -3374,7 +3382,7 @@
         <v>152</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3392,7 +3400,7 @@
         <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>78</v>
@@ -3406,10 +3414,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3435,16 +3443,16 @@
         <v>108</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>78</v>
@@ -3469,13 +3477,13 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>78</v>
@@ -3493,7 +3501,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3511,7 +3519,7 @@
         <v>131</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>78</v>
@@ -3520,15 +3528,15 @@
         <v>78</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3551,19 +3559,19 @@
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>78</v>
@@ -3588,13 +3596,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3612,7 +3620,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3627,10 +3635,10 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3644,10 +3652,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3673,16 +3681,16 @@
         <v>102</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>78</v>
@@ -3695,7 +3703,7 @@
         <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>78</v>
@@ -3731,7 +3739,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3746,27 +3754,27 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3792,13 +3800,13 @@
         <v>159</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3812,7 +3820,7 @@
         <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>78</v>
@@ -3848,7 +3856,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3863,13 +3871,13 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
@@ -3880,10 +3888,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3906,13 +3914,13 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3963,7 +3971,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3978,13 +3986,13 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -3995,10 +4003,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4021,16 +4029,16 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4080,7 +4088,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4095,13 +4103,13 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -4112,13 +4120,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>145</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>78</v>
@@ -4143,7 +4151,7 @@
         <v>146</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>148</v>
@@ -4160,7 +4168,7 @@
         <v>78</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>78</v>
@@ -4231,13 +4239,13 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>145</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>78</v>
@@ -4262,7 +4270,7 @@
         <v>146</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>148</v>
@@ -4279,7 +4287,7 @@
         <v>78</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>78</v>
@@ -4350,10 +4358,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4376,70 +4384,70 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="P22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q22" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="P22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q22" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4454,27 +4462,27 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4497,19 +4505,19 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4534,13 +4542,13 @@
         <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>78</v>
@@ -4558,7 +4566,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4573,16 +4581,16 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>78</v>
@@ -4590,10 +4598,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4619,16 +4627,16 @@
         <v>159</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4677,7 +4685,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4692,27 +4700,27 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4738,16 +4746,16 @@
         <v>159</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4796,7 +4804,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4814,7 +4822,7 @@
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
@@ -4828,10 +4836,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4854,19 +4862,19 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4915,7 +4923,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4924,19 +4932,19 @@
         <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -4947,10 +4955,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5048,7 +5056,7 @@
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -5062,10 +5070,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5094,7 +5102,7 @@
         <v>135</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N28" t="s" s="2">
         <v>137</v>
@@ -5135,10 +5143,10 @@
         <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>78</v>
@@ -5147,7 +5155,7 @@
         <v>152</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5165,7 +5173,7 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
@@ -5179,10 +5187,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5208,10 +5216,10 @@
         <v>108</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5238,13 +5246,13 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -5262,7 +5270,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5271,19 +5279,19 @@
         <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -5294,10 +5302,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5323,16 +5331,16 @@
         <v>159</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -5381,7 +5389,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5396,13 +5404,13 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -5413,10 +5421,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5442,16 +5450,16 @@
         <v>108</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -5476,13 +5484,13 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
@@ -5500,7 +5508,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5515,13 +5523,13 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5532,10 +5540,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5558,16 +5566,16 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5617,7 +5625,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5632,10 +5640,10 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5649,10 +5657,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5675,13 +5683,13 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5732,7 +5740,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5750,10 +5758,10 @@
         <v>131</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5764,10 +5772,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5790,19 +5798,19 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5851,7 +5859,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5860,19 +5868,19 @@
         <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>156</v>
+        <v>336</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -5883,10 +5891,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5984,7 +5992,7 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5998,10 +6006,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6030,7 +6038,7 @@
         <v>135</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>137</v>
@@ -6071,10 +6079,10 @@
         <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>78</v>
@@ -6083,7 +6091,7 @@
         <v>152</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6101,7 +6109,7 @@
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -6115,10 +6123,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6144,16 +6152,16 @@
         <v>108</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6166,7 +6174,7 @@
         <v>78</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>78</v>
@@ -6178,13 +6186,13 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
@@ -6202,7 +6210,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6217,13 +6225,13 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -6234,10 +6242,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6263,13 +6271,13 @@
         <v>108</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6283,7 +6291,7 @@
         <v>78</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>78</v>
@@ -6295,13 +6303,13 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
@@ -6319,7 +6327,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6334,10 +6342,10 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -6351,10 +6359,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6380,16 +6388,16 @@
         <v>159</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6402,7 +6410,7 @@
         <v>78</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>78</v>
@@ -6438,7 +6446,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6453,10 +6461,10 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6470,10 +6478,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6484,7 +6492,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>89</v>
@@ -6499,10 +6507,10 @@
         <v>159</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6517,7 +6525,7 @@
         <v>78</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>78</v>
@@ -6553,7 +6561,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6568,13 +6576,13 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -6585,14 +6593,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6614,10 +6622,10 @@
         <v>159</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6632,7 +6640,7 @@
         <v>78</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>78</v>
@@ -6668,7 +6676,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6683,13 +6691,13 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -6700,14 +6708,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6729,13 +6737,13 @@
         <v>159</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6749,7 +6757,7 @@
         <v>78</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>78</v>
@@ -6785,7 +6793,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6800,10 +6808,10 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6817,14 +6825,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6846,10 +6854,10 @@
         <v>159</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6876,13 +6884,13 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -6900,7 +6908,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6915,13 +6923,13 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -6932,14 +6940,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6961,10 +6969,10 @@
         <v>159</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6979,7 +6987,7 @@
         <v>78</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>78</v>
@@ -7015,7 +7023,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7030,13 +7038,13 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -7047,10 +7055,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7076,13 +7084,13 @@
         <v>159</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7132,7 +7140,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7147,13 +7155,13 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7164,10 +7172,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7190,17 +7198,17 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7213,7 +7221,7 @@
         <v>78</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>78</v>
@@ -7249,7 +7257,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7264,13 +7272,13 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7281,10 +7289,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7307,17 +7315,17 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -7366,7 +7374,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7381,13 +7389,13 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7398,10 +7406,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7424,19 +7432,19 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7485,7 +7493,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7503,7 +7511,7 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7517,10 +7525,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7618,7 +7626,7 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7632,10 +7640,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7664,7 +7672,7 @@
         <v>135</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>137</v>
@@ -7717,7 +7725,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7735,7 +7743,7 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7749,14 +7757,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7778,10 +7786,10 @@
         <v>134</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>137</v>
@@ -7836,7 +7844,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7868,10 +7876,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7894,17 +7902,17 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -7929,13 +7937,13 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
@@ -7953,7 +7961,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7971,7 +7979,7 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -7985,10 +7993,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8011,17 +8019,17 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -8070,7 +8078,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8085,10 +8093,10 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -8102,10 +8110,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8128,17 +8136,17 @@
         <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -8187,7 +8195,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8202,10 +8210,10 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -8219,10 +8227,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8245,17 +8253,17 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8304,7 +8312,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8319,10 +8327,10 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
@@ -8336,10 +8344,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8362,17 +8370,17 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8421,7 +8429,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8439,7 +8447,7 @@
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T06:10:13-06:00</t>
+    <t>2023-02-02T16:50:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.3-beta</t>
+    <t>0.1.4-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T16:50:30-06:00</t>
+    <t>2023-02-03T09:54:41-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-03T09:54:41-06:00</t>
+    <t>2023-02-21T15:24:44-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4-beta</t>
+    <t>0.1.5-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T15:24:44-06:00</t>
+    <t>2023-02-23T08:24:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:24:10-06:00</t>
+    <t>2023-02-23T08:47:22-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:47:22-06:00</t>
+    <t>2023-03-05T12:38:40-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$57</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="490">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5-beta</t>
+    <t>0.1.6-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T12:38:40-06:00</t>
+    <t>2023-03-23T11:34:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -512,219 +512,7 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>Organization.identifier.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Organization.identifier.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>`official`</t>
-  </si>
-  <si>
-    <t>Organization.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Organization.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>./IdentifierType</t>
-  </si>
-  <si>
-    <t>`https://johnmoehrke.github.io/MHV-PHR/labSiteId`</t>
-  </si>
-  <si>
-    <t>Organization.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>./Value</t>
-  </si>
-  <si>
-    <t>Organization.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
-    <t>Organization.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>./IdentifierIssuingAuthority</t>
+    <t>{StationNbr} and {LabSiteTO.id}</t>
   </si>
   <si>
     <t>Organization.identifier:NPI</t>
@@ -753,6 +541,251 @@
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="urn:oid:2.16.840.1.113883.4.7"/&gt;
 &lt;/valueIdentifier&gt;</t>
+  </si>
+  <si>
+    <t>Organization.identifier:TOid</t>
+  </si>
+  <si>
+    <t>TOid</t>
+  </si>
+  <si>
+    <t>Organization.identifier:TOid.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Organization.identifier:TOid.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier:TOid.use</t>
+  </si>
+  <si>
+    <t>Organization.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>usual</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Organization.identifier:TOid.type</t>
+  </si>
+  <si>
+    <t>Organization.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Organization.identifier:TOid.system</t>
+  </si>
+  <si>
+    <t>Organization.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.840.1.113883.4.349</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>./IdentifierType</t>
+  </si>
+  <si>
+    <t>Organization.identifier:TOid.value</t>
+  </si>
+  <si>
+    <t>Organization.identifier.value</t>
+  </si>
+  <si>
+    <t>`LabSiteTO` | `.` | {LabSiteTO.id}</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>./Value</t>
+  </si>
+  <si>
+    <t>Organization.identifier:TOid.period</t>
+  </si>
+  <si>
+    <t>Organization.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
+    <t>Organization.identifier:TOid.assigner</t>
+  </si>
+  <si>
+    <t>Organization.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>./IdentifierIssuingAuthority</t>
   </si>
   <si>
     <t>Organization.active</t>
@@ -1834,7 +1867,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO56"/>
+  <dimension ref="A1:AO57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1882,7 +1915,7 @@
     <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="211.14453125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="48.1484375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="29.09375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3076,7 +3109,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>80</v>
@@ -3177,17 +3210,19 @@
         <v>157</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>78</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>78</v>
       </c>
@@ -3199,25 +3234,27 @@
         <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>78</v>
       </c>
@@ -3226,7 +3263,7 @@
         <v>78</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>78</v>
@@ -3265,31 +3302,31 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>78</v>
@@ -3297,21 +3334,23 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="C13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
@@ -3320,21 +3359,21 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>78</v>
       </c>
@@ -3343,7 +3382,7 @@
         <v>78</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="T13" t="s" s="2">
         <v>78</v>
@@ -3370,19 +3409,19 @@
         <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3391,22 +3430,22 @@
         <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>78</v>
@@ -3414,45 +3453,47 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>78</v>
@@ -3477,13 +3518,13 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>78</v>
@@ -3501,42 +3542,42 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3556,23 +3597,19 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3596,13 +3633,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3620,7 +3657,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3632,13 +3669,13 @@
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3652,46 +3689,44 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>192</v>
+        <v>135</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>78</v>
       </c>
@@ -3703,7 +3738,7 @@
         <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>78</v>
@@ -3727,54 +3762,54 @@
         <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>201</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3788,27 +3823,29 @@
         <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>78</v>
       </c>
@@ -3817,10 +3854,10 @@
         <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>78</v>
@@ -3832,13 +3869,13 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>78</v>
@@ -3856,7 +3893,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3871,27 +3908,27 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3914,16 +3951,20 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>78</v>
       </c>
@@ -3947,13 +3988,13 @@
         <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>78</v>
@@ -3971,7 +4012,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3986,13 +4027,13 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -4003,10 +4044,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4014,7 +4055,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>88</v>
@@ -4029,30 +4070,32 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>220</v>
+        <v>102</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>78</v>
@@ -4088,7 +4131,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4103,13 +4146,13 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -4120,14 +4163,12 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>78</v>
       </c>
@@ -4139,7 +4180,7 @@
         <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>78</v>
@@ -4148,18 +4189,18 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>78</v>
       </c>
@@ -4168,10 +4209,10 @@
         <v>78</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>78</v>
@@ -4207,31 +4248,31 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>145</v>
+        <v>224</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>154</v>
+        <v>225</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>78</v>
@@ -4239,14 +4280,12 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>78</v>
       </c>
@@ -4267,18 +4306,16 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>146</v>
+        <v>230</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>148</v>
+        <v>232</v>
       </c>
       <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>150</v>
-      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
       </c>
@@ -4287,7 +4324,7 @@
         <v>78</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>78</v>
@@ -4326,31 +4363,31 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>145</v>
+        <v>233</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>156</v>
+        <v>236</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>78</v>
@@ -4358,10 +4395,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4369,41 +4406,37 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q22" t="s" s="2">
-        <v>242</v>
-      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
         <v>78</v>
       </c>
@@ -4447,7 +4480,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4462,27 +4495,27 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>246</v>
+        <v>78</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>247</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4490,22 +4523,22 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>181</v>
+        <v>248</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>249</v>
@@ -4522,7 +4555,9 @@
       <c r="P23" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="R23" t="s" s="2">
         <v>78</v>
       </c>
@@ -4542,13 +4577,13 @@
         <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>78</v>
@@ -4566,13 +4601,13 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
@@ -4581,19 +4616,19 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AM23" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="24" hidden="true">
@@ -4609,13 +4644,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>78</v>
@@ -4624,7 +4659,7 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>260</v>
@@ -4661,13 +4696,13 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>78</v>
+        <v>266</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>78</v>
@@ -4691,36 +4726,36 @@
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>266</v>
+        <v>175</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4728,34 +4763,34 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4804,42 +4839,42 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>78</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4853,7 +4888,7 @@
         <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>78</v>
@@ -4862,19 +4897,19 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>274</v>
+        <v>171</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4923,7 +4958,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4932,19 +4967,19 @@
         <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>283</v>
+        <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -4969,10 +5004,10 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>78</v>
@@ -4981,16 +5016,20 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>159</v>
+        <v>285</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>160</v>
+        <v>286</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
@@ -5038,28 +5077,28 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>162</v>
+        <v>284</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>78</v>
+        <v>292</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>163</v>
+        <v>293</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -5070,21 +5109,21 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -5096,17 +5135,15 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -5143,37 +5180,37 @@
         <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
@@ -5187,41 +5224,43 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>287</v>
+        <v>135</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -5246,52 +5285,52 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>291</v>
+        <v>181</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>292</v>
+        <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>293</v>
+        <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>294</v>
+        <v>175</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>295</v>
+        <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -5302,10 +5341,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5328,20 +5367,16 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N30" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="O30" t="s" s="2">
-        <v>300</v>
-      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
       </c>
@@ -5365,13 +5400,13 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>78</v>
+        <v>301</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
@@ -5389,7 +5424,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5398,19 +5433,19 @@
         <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>78</v>
+        <v>303</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>210</v>
+        <v>306</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -5421,10 +5456,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5438,28 +5473,28 @@
         <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -5484,13 +5519,13 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>309</v>
+        <v>78</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>310</v>
+        <v>78</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
@@ -5508,7 +5543,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5523,13 +5558,13 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>314</v>
+        <v>227</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5560,24 +5595,26 @@
         <v>78</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
       </c>
@@ -5601,13 +5638,13 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
@@ -5625,7 +5662,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5640,13 +5677,13 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>163</v>
+        <v>323</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>163</v>
+        <v>324</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>78</v>
+        <v>325</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5657,10 +5694,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5683,15 +5720,17 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>212</v>
+        <v>327</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5740,7 +5779,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5755,13 +5794,13 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>325</v>
+        <v>175</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5772,10 +5811,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5786,32 +5825,28 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J34" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="K34" t="s" s="2">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5859,28 +5894,28 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>332</v>
+        <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>333</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>334</v>
+        <v>131</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -5905,10 +5940,10 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>78</v>
@@ -5917,16 +5952,20 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>159</v>
+        <v>338</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>160</v>
+        <v>339</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
@@ -5974,28 +6013,28 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>162</v>
+        <v>337</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>78</v>
+        <v>343</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>78</v>
+        <v>344</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>78</v>
+        <v>345</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>163</v>
+        <v>346</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>78</v>
+        <v>347</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -6006,21 +6045,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -6032,17 +6071,15 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -6079,37 +6116,37 @@
         <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -6123,46 +6160,44 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>340</v>
+        <v>135</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>341</v>
+        <v>178</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
@@ -6174,7 +6209,7 @@
         <v>78</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>344</v>
+        <v>78</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>78</v>
@@ -6186,52 +6221,52 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>345</v>
+        <v>78</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>346</v>
+        <v>78</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>347</v>
+        <v>181</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>348</v>
+        <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>313</v>
+        <v>175</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>349</v>
+        <v>78</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -6262,7 +6297,7 @@
         <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>89</v>
@@ -6279,7 +6314,9 @@
       <c r="N38" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="O38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
       </c>
@@ -6291,7 +6328,7 @@
         <v>78</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>78</v>
@@ -6303,13 +6340,13 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
@@ -6327,7 +6364,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6342,13 +6379,13 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>78</v>
+        <v>360</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6359,10 +6396,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6385,20 +6422,18 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6410,7 +6445,7 @@
         <v>78</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>78</v>
@@ -6422,13 +6457,13 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>78</v>
+        <v>366</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>78</v>
+        <v>367</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -6446,7 +6481,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6461,10 +6496,10 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6478,10 +6513,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6492,10 +6527,10 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>369</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>78</v>
@@ -6504,16 +6539,20 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
       </c>
@@ -6525,7 +6564,7 @@
         <v>78</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>78</v>
@@ -6561,13 +6600,13 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
@@ -6576,13 +6615,13 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>376</v>
+        <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -6593,21 +6632,21 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>378</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>380</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>89</v>
@@ -6619,13 +6658,13 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6640,7 +6679,7 @@
         <v>78</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>78</v>
@@ -6676,13 +6715,13 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
@@ -6691,13 +6730,13 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -6708,14 +6747,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6725,7 +6764,7 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>78</v>
@@ -6734,17 +6773,15 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6757,7 +6794,7 @@
         <v>78</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>78</v>
@@ -6793,7 +6830,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6808,13 +6845,13 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>78</v>
+        <v>396</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -6825,14 +6862,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6842,7 +6879,7 @@
         <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>78</v>
@@ -6851,15 +6888,17 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6872,7 +6911,7 @@
         <v>78</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>78</v>
+        <v>402</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>78</v>
@@ -6884,13 +6923,13 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>399</v>
+        <v>78</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>400</v>
+        <v>78</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -6908,7 +6947,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6923,13 +6962,13 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>404</v>
+        <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -6940,14 +6979,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6966,13 +7005,13 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6987,7 +7026,7 @@
         <v>78</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>409</v>
+        <v>78</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>78</v>
@@ -6999,13 +7038,13 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>78</v>
+        <v>410</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>78</v>
+        <v>411</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -7023,7 +7062,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7038,13 +7077,13 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -7055,14 +7094,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>78</v>
+        <v>417</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7081,17 +7120,15 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -7104,7 +7141,7 @@
         <v>78</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>78</v>
+        <v>420</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>78</v>
@@ -7140,7 +7177,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7155,13 +7192,13 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7172,10 +7209,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7189,7 +7226,7 @@
         <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>78</v>
@@ -7198,18 +7235,18 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7221,7 +7258,7 @@
         <v>78</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>426</v>
+        <v>78</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>78</v>
@@ -7257,7 +7294,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7272,13 +7309,13 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>325</v>
+        <v>431</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>218</v>
+        <v>432</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7289,10 +7326,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7315,17 +7352,17 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -7338,7 +7375,7 @@
         <v>78</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>78</v>
+        <v>437</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>78</v>
@@ -7374,7 +7411,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7389,13 +7426,13 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>243</v>
+        <v>439</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>433</v>
+        <v>336</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>163</v>
+        <v>236</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7406,10 +7443,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7420,7 +7457,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -7429,22 +7466,20 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>435</v>
+        <v>239</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7493,13 +7528,13 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>78</v>
@@ -7508,13 +7543,13 @@
         <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7525,10 +7560,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7539,7 +7574,7 @@
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
@@ -7551,16 +7586,20 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>159</v>
+        <v>446</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>160</v>
+        <v>447</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7608,25 +7647,25 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>162</v>
+        <v>445</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>163</v>
+        <v>451</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7640,21 +7679,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7666,17 +7705,15 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7725,25 +7762,25 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7757,14 +7794,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>444</v>
+        <v>133</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7777,26 +7814,24 @@
         <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>445</v>
+        <v>135</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>446</v>
+        <v>178</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="O51" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7844,7 +7879,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>447</v>
+        <v>181</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7862,7 +7897,7 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7876,43 +7911,45 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>78</v>
+        <v>455</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>451</v>
+        <v>143</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -7937,13 +7974,13 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>452</v>
+        <v>78</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>453</v>
+        <v>78</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
@@ -7961,25 +7998,25 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>454</v>
+        <v>131</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -7993,10 +8030,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8019,17 +8056,17 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>456</v>
+        <v>196</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -8054,13 +8091,13 @@
         <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>78</v>
+        <v>463</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>78</v>
+        <v>464</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
@@ -8078,7 +8115,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8093,10 +8130,10 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>460</v>
+        <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -8110,10 +8147,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8124,7 +8161,7 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -8136,17 +8173,17 @@
         <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>274</v>
+        <v>467</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -8195,13 +8232,13 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
@@ -8210,10 +8247,10 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -8227,10 +8264,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8241,7 +8278,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -8253,17 +8290,17 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8312,13 +8349,13 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
@@ -8327,10 +8364,10 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
@@ -8344,10 +8381,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8358,7 +8395,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -8370,17 +8407,17 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>475</v>
+        <v>338</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8429,13 +8466,13 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>78</v>
@@ -8444,10 +8481,10 @@
         <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>78</v>
+        <v>483</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>163</v>
+        <v>484</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -8456,11 +8493,128 @@
         <v>78</v>
       </c>
       <c r="AO56" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO57" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO56">
+  <autoFilter ref="A1:AO57">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8470,7 +8624,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI55">
+  <conditionalFormatting sqref="A2:AI56">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6-beta</t>
+    <t>0.1.7-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:34:13-05:00</t>
+    <t>2023-03-29T16:54:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -549,6 +549,11 @@
     <t>TOid</t>
   </si>
   <si>
+    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="urn:oid:2.16.840.1.113883.4.349"/&gt;
+&lt;/valueIdentifier&gt;</t>
+  </si>
+  <si>
     <t>Organization.identifier:TOid.id</t>
   </si>
   <si>
@@ -679,9 +684,6 @@
   </si>
   <si>
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>urn:oid:2.16.840.1.113883.4.349</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -3503,7 +3505,7 @@
         <v>78</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>78</v>
@@ -3574,10 +3576,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3600,13 +3602,13 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3657,7 +3659,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3675,7 +3677,7 @@
         <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3689,10 +3691,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3721,7 +3723,7 @@
         <v>135</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N16" t="s" s="2">
         <v>137</v>
@@ -3762,10 +3764,10 @@
         <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>78</v>
@@ -3774,7 +3776,7 @@
         <v>152</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3792,7 +3794,7 @@
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3806,10 +3808,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3835,16 +3837,16 @@
         <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -3854,7 +3856,7 @@
         <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>78</v>
@@ -3869,13 +3871,13 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>78</v>
@@ -3893,7 +3895,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3911,7 +3913,7 @@
         <v>131</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -3925,10 +3927,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3951,19 +3953,19 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -3988,13 +3990,13 @@
         <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>78</v>
@@ -4012,7 +4014,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -4027,10 +4029,10 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
@@ -4044,10 +4046,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4073,23 +4075,23 @@
         <v>102</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>78</v>
@@ -4189,7 +4191,7 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>220</v>
@@ -4659,7 +4661,7 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>260</v>
@@ -4741,7 +4743,7 @@
         <v>268</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>269</v>
@@ -4778,7 +4780,7 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>271</v>
@@ -4897,7 +4899,7 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>280</v>
@@ -5135,13 +5137,13 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5192,7 +5194,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5210,7 +5212,7 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
@@ -5256,7 +5258,7 @@
         <v>135</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>137</v>
@@ -5297,10 +5299,10 @@
         <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>78</v>
@@ -5309,7 +5311,7 @@
         <v>152</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5327,7 +5329,7 @@
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
@@ -5400,7 +5402,7 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y30" t="s" s="2">
         <v>300</v>
@@ -5482,7 +5484,7 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>308</v>
@@ -5638,7 +5640,7 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y32" t="s" s="2">
         <v>320</v>
@@ -5794,10 +5796,10 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -6071,13 +6073,13 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6128,7 +6130,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6146,7 +6148,7 @@
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -6192,7 +6194,7 @@
         <v>135</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>137</v>
@@ -6233,10 +6235,10 @@
         <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>78</v>
@@ -6245,7 +6247,7 @@
         <v>152</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6263,7 +6265,7 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -6340,7 +6342,7 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y38" t="s" s="2">
         <v>356</v>
@@ -6457,7 +6459,7 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y39" t="s" s="2">
         <v>366</v>
@@ -6539,7 +6541,7 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>371</v>
@@ -6658,7 +6660,7 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>381</v>
@@ -6773,7 +6775,7 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>390</v>
@@ -6888,7 +6890,7 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>399</v>
@@ -7005,7 +7007,7 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>408</v>
@@ -7038,7 +7040,7 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y44" t="s" s="2">
         <v>410</v>
@@ -7120,7 +7122,7 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>418</v>
@@ -7235,7 +7237,7 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>426</v>
@@ -7549,7 +7551,7 @@
         <v>444</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7705,13 +7707,13 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7762,7 +7764,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7780,7 +7782,7 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7826,7 +7828,7 @@
         <v>135</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>137</v>
@@ -7879,7 +7881,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7897,7 +7899,7 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -8056,7 +8058,7 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>460</v>
@@ -8091,7 +8093,7 @@
         <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y53" t="s" s="2">
         <v>463</v>
@@ -8601,7 +8603,7 @@
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T16:54:48-05:00</t>
+    <t>2023-03-30T12:22:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T12:22:18-05:00</t>
+    <t>2023-03-31T07:50:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T07:50:38-05:00</t>
+    <t>2023-04-11T08:45:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7-beta</t>
+    <t>0.1.8-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:45:33-05:00</t>
+    <t>2023-04-12T10:49:54-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8-beta</t>
+    <t>0.1.9-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T10:49:54-05:00</t>
+    <t>2023-04-14T09:56:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T18:54:15-05:00</t>
+    <t>2023-04-17T19:11:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.10-beta</t>
+    <t>0.1.11-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T19:11:15-05:00</t>
+    <t>2023-04-24T08:03:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.11-beta</t>
+    <t>0.1.12-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-24T08:03:17-05:00</t>
+    <t>2023-05-01T08:16:19-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.12-beta</t>
+    <t>0.1.13-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T08:16:19-05:00</t>
+    <t>2023-05-02T08:13:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.13-beta</t>
+    <t>0.1.14-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-02T08:13:48-05:00</t>
+    <t>2023-05-04T14:24:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.14-beta</t>
+    <t>0.1.15-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T14:24:58-05:00</t>
+    <t>2023-06-07T11:47:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T11:38:47-05:00</t>
+    <t>2023-06-13T14:37:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T14:37:26-05:00</t>
+    <t>2023-06-13T16:30:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T16:30:05-05:00</t>
+    <t>2023-06-16T14:48:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.16-beta</t>
+    <t>0.1.17-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-16T14:48:21-05:00</t>
+    <t>2023-07-13T09:22:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.17-beta</t>
+    <t>0.1.18-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T09:22:36-05:00</t>
+    <t>2023-07-19T13:17:04-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T13:17:04-05:00</t>
+    <t>2023-07-21T16:23:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T16:23:00-05:00</t>
+    <t>2023-08-03T12:49:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T12:49:33-05:00</t>
+    <t>2023-08-17T15:11:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.18-beta</t>
+    <t>0.1.19-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-17T15:11:45-05:00</t>
+    <t>2023-08-18T06:56:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T06:56:10-05:00</t>
+    <t>2023-08-18T07:55:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.19-beta</t>
+    <t>0.1.20-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T07:55:35-05:00</t>
+    <t>2023-08-22T11:16:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T11:16:10-05:00</t>
+    <t>2023-08-22T12:58:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.organization</t>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.organization</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.20-beta</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T12:58:52-05:00</t>
+    <t>2023-08-22T16:36:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>John Moehrke (himself)</t>
+    <t>VA Digital Services</t>
   </si>
   <si>
     <t>Contact</t>
@@ -91,7 +91,7 @@
   - there are other things us-core defines that are not manditory (NPI, CLIA)
 - two identifier types defined TOid and HDRid
 - used for Lab Site. In FHIR R4, the Lab site needs to go into .performer which can't take a Location. (TechnicalDebt)
-Map to [VDIF labSiteID](StructureDefinition-VA.MHV.PHR.organization-mappings.html#mappings-for-vdif-to-mhv-phr-labsiteto)
+Map to [VIA labSiteID](StructureDefinition-VA.MHV.PHR.organization-mappings.html#mappings-for-via-to-mhv-phr-labsiteto)
 Map to [HDR PerformingOrganization](StructureDefinition-VA.MHV.PHR.organization-mappings.html#mappings-for-hdr-to-mhv-phr-performingorganization)</t>
   </si>
   <si>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="457">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T16:36:15-05:00</t>
+    <t>2023-08-24T09:48:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -91,6 +91,7 @@
   - there are other things us-core defines that are not manditory (NPI, CLIA)
 - two identifier types defined TOid and HDRid
 - used for Lab Site. In FHIR R4, the Lab site needs to go into .performer which can't take a Location. (TechnicalDebt)
+- always a contained resource, so not exposed RESTfully
 Map to [VIA labSiteID](StructureDefinition-VA.MHV.PHR.organization-mappings.html#mappings-for-via-to-mhv-phr-labsiteto)
 Map to [HDR PerformingOrganization](StructureDefinition-VA.MHV.PHR.organization-mappings.html#mappings-for-hdr-to-mhv-phr-performingorganization)</t>
   </si>
@@ -154,6 +155,10 @@
   </si>
   <si>
     <t>\-</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>
@@ -1922,13 +1927,13 @@
         <v>37</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>30</v>
@@ -1937,18 +1942,18 @@
         <v>37</v>
       </c>
       <c r="AO1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AP1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1959,7 +1964,7 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>37</v>
@@ -1968,19 +1973,19 @@
         <v>37</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2030,13 +2035,13 @@
         <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>37</v>
@@ -2065,10 +2070,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2079,7 +2084,7 @@
         <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>37</v>
@@ -2088,16 +2093,16 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2148,19 +2153,19 @@
         <v>37</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>37</v>
@@ -2183,10 +2188,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2197,28 +2202,28 @@
         <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2268,19 +2273,19 @@
         <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>37</v>
@@ -2303,10 +2308,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2317,7 +2322,7 @@
         <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>37</v>
@@ -2329,16 +2334,16 @@
         <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2364,13 +2369,13 @@
         <v>37</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>37</v>
@@ -2388,19 +2393,19 @@
         <v>37</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>37</v>
@@ -2423,21 +2428,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>37</v>
@@ -2449,16 +2454,16 @@
         <v>37</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2508,25 +2513,25 @@
         <v>37</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>37</v>
@@ -2543,14 +2548,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2569,16 +2574,16 @@
         <v>37</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2628,7 +2633,7 @@
         <v>37</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
@@ -2646,7 +2651,7 @@
         <v>37</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>37</v>
@@ -2663,14 +2668,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2689,16 +2694,16 @@
         <v>37</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2748,7 +2753,7 @@
         <v>37</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
@@ -2760,13 +2765,13 @@
         <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>37</v>
@@ -2783,14 +2788,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2803,25 +2808,25 @@
         <v>37</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>37</v>
@@ -2870,7 +2875,7 @@
         <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -2882,13 +2887,13 @@
         <v>37</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>37</v>
@@ -2905,10 +2910,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2916,34 +2921,34 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>37</v>
@@ -2980,17 +2985,17 @@
         <v>37</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -2999,22 +3004,22 @@
         <v>39</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>37</v>
@@ -3025,10 +3030,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3039,7 +3044,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>37</v>
@@ -3051,13 +3056,13 @@
         <v>37</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3108,13 +3113,13 @@
         <v>37</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>37</v>
@@ -3126,7 +3131,7 @@
         <v>37</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>37</v>
@@ -3143,14 +3148,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3169,16 +3174,16 @@
         <v>37</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3216,19 +3221,19 @@
         <v>37</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
@@ -3240,13 +3245,13 @@
         <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>37</v>
@@ -3263,10 +3268,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3277,31 +3282,31 @@
         <v>38</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>37</v>
@@ -3326,13 +3331,13 @@
         <v>37</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>37</v>
@@ -3350,25 +3355,25 @@
         <v>37</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>37</v>
@@ -3377,18 +3382,18 @@
         <v>37</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3399,7 +3404,7 @@
         <v>38</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>37</v>
@@ -3408,22 +3413,22 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>37</v>
@@ -3448,13 +3453,13 @@
         <v>37</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>37</v>
@@ -3472,25 +3477,25 @@
         <v>37</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>37</v>
@@ -3507,10 +3512,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3521,31 +3526,31 @@
         <v>38</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>37</v>
@@ -3558,7 +3563,7 @@
         <v>37</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U15" t="s" s="2">
         <v>37</v>
@@ -3594,45 +3599,45 @@
         <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3643,28 +3648,28 @@
         <v>38</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3678,7 +3683,7 @@
         <v>37</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>37</v>
@@ -3714,45 +3719,45 @@
         <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3763,7 +3768,7 @@
         <v>38</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>37</v>
@@ -3772,16 +3777,16 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3832,28 +3837,28 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>37</v>
@@ -3867,10 +3872,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3881,7 +3886,7 @@
         <v>38</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>37</v>
@@ -3890,19 +3895,19 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3952,28 +3957,28 @@
         <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>37</v>
@@ -3987,13 +3992,13 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>37</v>
@@ -4003,29 +4008,29 @@
         <v>38</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>37</v>
@@ -4035,7 +4040,7 @@
         <v>37</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>37</v>
@@ -4074,7 +4079,7 @@
         <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>38</v>
@@ -4083,22 +4088,22 @@
         <v>39</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>37</v>
@@ -4109,13 +4114,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>37</v>
@@ -4125,7 +4130,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>37</v>
@@ -4134,20 +4139,20 @@
         <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>37</v>
@@ -4157,7 +4162,7 @@
         <v>37</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>37</v>
@@ -4196,7 +4201,7 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>38</v>
@@ -4205,22 +4210,22 @@
         <v>39</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>37</v>
@@ -4231,13 +4236,13 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>37</v>
@@ -4250,28 +4255,28 @@
         <v>39</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>37</v>
@@ -4281,7 +4286,7 @@
         <v>37</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>37</v>
@@ -4320,7 +4325,7 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>38</v>
@@ -4329,22 +4334,22 @@
         <v>39</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>37</v>
@@ -4355,10 +4360,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4369,7 +4374,7 @@
         <v>38</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>37</v>
@@ -4381,13 +4386,13 @@
         <v>37</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4438,13 +4443,13 @@
         <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>37</v>
@@ -4456,7 +4461,7 @@
         <v>37</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>37</v>
@@ -4473,14 +4478,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4499,16 +4504,16 @@
         <v>37</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4546,19 +4551,19 @@
         <v>37</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
@@ -4570,13 +4575,13 @@
         <v>37</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>37</v>
@@ -4593,10 +4598,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4607,31 +4612,31 @@
         <v>38</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>37</v>
@@ -4641,7 +4646,7 @@
         <v>37</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>37</v>
@@ -4656,13 +4661,13 @@
         <v>37</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>37</v>
@@ -4680,25 +4685,25 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>37</v>
@@ -4715,10 +4720,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4729,7 +4734,7 @@
         <v>38</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>37</v>
@@ -4738,22 +4743,22 @@
         <v>37</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>37</v>
@@ -4778,13 +4783,13 @@
         <v>37</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>37</v>
@@ -4802,25 +4807,25 @@
         <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>37</v>
@@ -4837,10 +4842,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4848,10 +4853,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>37</v>
@@ -4860,22 +4865,22 @@
         <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>37</v>
@@ -4888,7 +4893,7 @@
         <v>37</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>37</v>
@@ -4924,28 +4929,28 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>37</v>
@@ -4959,10 +4964,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4973,7 +4978,7 @@
         <v>38</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>37</v>
@@ -4982,19 +4987,19 @@
         <v>37</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5008,7 +5013,7 @@
         <v>37</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>37</v>
@@ -5044,28 +5049,28 @@
         <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>37</v>
@@ -5079,10 +5084,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5093,7 +5098,7 @@
         <v>38</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>37</v>
@@ -5102,16 +5107,16 @@
         <v>37</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5162,28 +5167,28 @@
         <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>37</v>
@@ -5197,10 +5202,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5211,7 +5216,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>37</v>
@@ -5220,19 +5225,19 @@
         <v>37</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5282,28 +5287,28 @@
         <v>37</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>37</v>
@@ -5317,10 +5322,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5328,123 +5333,123 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q30" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH30" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="I30" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="P30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q30" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="AI30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5464,22 +5469,22 @@
         <v>37</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>37</v>
@@ -5504,13 +5509,13 @@
         <v>37</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>37</v>
@@ -5528,7 +5533,7 @@
         <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
@@ -5540,19 +5545,19 @@
         <v>37</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>37</v>
@@ -5563,10 +5568,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5574,34 +5579,34 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>37</v>
@@ -5650,45 +5655,45 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5711,19 +5716,19 @@
         <v>37</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>37</v>
@@ -5772,7 +5777,7 @@
         <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
@@ -5784,13 +5789,13 @@
         <v>37</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>37</v>
@@ -5807,10 +5812,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5824,7 +5829,7 @@
         <v>39</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>37</v>
@@ -5833,19 +5838,19 @@
         <v>37</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>37</v>
@@ -5894,7 +5899,7 @@
         <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
@@ -5903,19 +5908,19 @@
         <v>39</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>37</v>
@@ -5929,10 +5934,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5943,7 +5948,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>37</v>
@@ -5955,13 +5960,13 @@
         <v>37</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6012,13 +6017,13 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>37</v>
@@ -6030,7 +6035,7 @@
         <v>37</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>37</v>
@@ -6047,14 +6052,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6073,16 +6078,16 @@
         <v>37</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6120,19 +6125,19 @@
         <v>37</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>38</v>
@@ -6144,13 +6149,13 @@
         <v>37</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>37</v>
@@ -6167,10 +6172,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6181,25 +6186,25 @@
         <v>38</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6226,13 +6231,13 @@
         <v>37</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>37</v>
@@ -6250,28 +6255,28 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>37</v>
@@ -6285,10 +6290,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6299,31 +6304,31 @@
         <v>38</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>37</v>
@@ -6372,28 +6377,28 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>37</v>
@@ -6407,10 +6412,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6421,31 +6426,31 @@
         <v>38</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>37</v>
@@ -6470,13 +6475,13 @@
         <v>37</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>37</v>
@@ -6494,28 +6499,28 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>37</v>
@@ -6529,10 +6534,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6543,7 +6548,7 @@
         <v>38</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>37</v>
@@ -6552,19 +6557,19 @@
         <v>37</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6614,25 +6619,25 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>37</v>
@@ -6649,10 +6654,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6663,7 +6668,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>37</v>
@@ -6672,16 +6677,16 @@
         <v>37</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6732,28 +6737,28 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>37</v>
@@ -6767,10 +6772,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6784,7 +6789,7 @@
         <v>39</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>37</v>
@@ -6793,19 +6798,19 @@
         <v>37</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>37</v>
@@ -6854,7 +6859,7 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
@@ -6863,19 +6868,19 @@
         <v>39</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>37</v>
@@ -6884,15 +6889,15 @@
         <v>37</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6903,7 +6908,7 @@
         <v>38</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>37</v>
@@ -6915,13 +6920,13 @@
         <v>37</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6972,13 +6977,13 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>37</v>
@@ -6990,7 +6995,7 @@
         <v>37</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>37</v>
@@ -7007,14 +7012,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7033,16 +7038,16 @@
         <v>37</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7080,19 +7085,19 @@
         <v>37</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
@@ -7104,13 +7109,13 @@
         <v>37</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>37</v>
@@ -7127,10 +7132,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7141,31 +7146,31 @@
         <v>38</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>37</v>
@@ -7178,7 +7183,7 @@
         <v>37</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>37</v>
@@ -7190,13 +7195,13 @@
         <v>37</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>37</v>
@@ -7214,28 +7219,28 @@
         <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>37</v>
@@ -7249,10 +7254,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7263,7 +7268,7 @@
         <v>38</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>37</v>
@@ -7272,19 +7277,19 @@
         <v>37</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7298,7 +7303,7 @@
         <v>37</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>37</v>
@@ -7310,13 +7315,13 @@
         <v>37</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>37</v>
@@ -7334,25 +7339,25 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>37</v>
@@ -7369,10 +7374,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7383,7 +7388,7 @@
         <v>38</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>37</v>
@@ -7392,22 +7397,22 @@
         <v>37</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>37</v>
@@ -7420,7 +7425,7 @@
         <v>37</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>37</v>
@@ -7456,25 +7461,25 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>37</v>
@@ -7491,10 +7496,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7505,25 +7510,25 @@
         <v>38</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7538,7 +7543,7 @@
         <v>37</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>37</v>
@@ -7574,7 +7579,7 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
@@ -7586,16 +7591,16 @@
         <v>37</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>37</v>
@@ -7609,39 +7614,39 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7656,7 +7661,7 @@
         <v>37</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>37</v>
@@ -7692,28 +7697,28 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>37</v>
@@ -7727,21 +7732,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>37</v>
@@ -7750,19 +7755,19 @@
         <v>37</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7776,7 +7781,7 @@
         <v>37</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>37</v>
@@ -7812,25 +7817,25 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>37</v>
@@ -7847,39 +7852,39 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7906,13 +7911,13 @@
         <v>37</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>37</v>
@@ -7930,28 +7935,28 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>37</v>
@@ -7965,39 +7970,39 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8012,7 +8017,7 @@
         <v>37</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>37</v>
@@ -8048,28 +8053,28 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>37</v>
@@ -8083,10 +8088,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8097,28 +8102,28 @@
         <v>38</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8168,28 +8173,28 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>37</v>
@@ -8203,10 +8208,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8217,7 +8222,7 @@
         <v>38</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>37</v>
@@ -8226,20 +8231,20 @@
         <v>37</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>37</v>
@@ -8252,7 +8257,7 @@
         <v>37</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>37</v>
@@ -8288,28 +8293,28 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>37</v>
@@ -8323,10 +8328,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8337,7 +8342,7 @@
         <v>38</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>37</v>
@@ -8346,20 +8351,20 @@
         <v>37</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>37</v>
@@ -8408,28 +8413,28 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>37</v>
@@ -8443,10 +8448,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8469,19 +8474,19 @@
         <v>37</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>37</v>
@@ -8530,7 +8535,7 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>38</v>
@@ -8542,13 +8547,13 @@
         <v>37</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>37</v>
@@ -8565,10 +8570,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8579,7 +8584,7 @@
         <v>38</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>37</v>
@@ -8591,13 +8596,13 @@
         <v>37</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8648,13 +8653,13 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>37</v>
@@ -8666,7 +8671,7 @@
         <v>37</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>37</v>
@@ -8683,14 +8688,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8709,16 +8714,16 @@
         <v>37</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8768,7 +8773,7 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
@@ -8780,13 +8785,13 @@
         <v>37</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>37</v>
@@ -8803,14 +8808,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8823,25 +8828,25 @@
         <v>37</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>37</v>
@@ -8890,7 +8895,7 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
@@ -8902,13 +8907,13 @@
         <v>37</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>37</v>
@@ -8925,10 +8930,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8939,7 +8944,7 @@
         <v>38</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>37</v>
@@ -8951,17 +8956,17 @@
         <v>37</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>37</v>
@@ -8986,13 +8991,13 @@
         <v>37</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>37</v>
@@ -9010,25 +9015,25 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>37</v>
@@ -9045,10 +9050,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9059,7 +9064,7 @@
         <v>38</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>37</v>
@@ -9071,17 +9076,17 @@
         <v>37</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>37</v>
@@ -9130,25 +9135,25 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>37</v>
@@ -9165,10 +9170,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9191,17 +9196,17 @@
         <v>37</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>37</v>
@@ -9250,7 +9255,7 @@
         <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>38</v>
@@ -9262,13 +9267,13 @@
         <v>37</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>37</v>
@@ -9285,10 +9290,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9299,7 +9304,7 @@
         <v>38</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>37</v>
@@ -9311,17 +9316,17 @@
         <v>37</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>37</v>
@@ -9370,25 +9375,25 @@
         <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>37</v>
@@ -9405,10 +9410,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9431,17 +9436,17 @@
         <v>37</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>37</v>
@@ -9490,7 +9495,7 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>38</v>
@@ -9502,13 +9507,13 @@
         <v>37</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>37</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T09:48:15-05:00</t>
+    <t>2023-08-25T12:12:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -92,8 +92,8 @@
 - two identifier types defined TOid and HDRid
 - used for Lab Site. In FHIR R4, the Lab site needs to go into .performer which can't take a Location. (TechnicalDebt)
 - always a contained resource, so not exposed RESTfully
-Map to [VIA labSiteID](StructureDefinition-VA.MHV.PHR.organization-mappings.html#mappings-for-via-to-mhv-phr-labsiteto)
-Map to [HDR PerformingOrganization](StructureDefinition-VA.MHV.PHR.organization-mappings.html#mappings-for-hdr-to-mhv-phr-performingorganization)</t>
+Map to [VIA labSiteID](StructureDefinition-VA.MHV.PHR.organization-mappings.html#mappings-for-via-to-mhv-fhir-phr-labsiteto)
+Map to [HDR PerformingOrganization](StructureDefinition-VA.MHV.PHR.organization-mappings.html#mappings-for-hdr-to-mhv-fhir-phr-performingorganization)</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T12:12:31-05:00</t>
+    <t>2023-08-25T14:41:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T14:41:58-05:00</t>
+    <t>2023-08-31T15:33:32-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.3</t>
+    <t>0.2.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:33:32-05:00</t>
+    <t>2023-09-22T11:03:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2545" uniqueCount="460">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.4</t>
+    <t>0.2.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-22T11:03:56-05:00</t>
+    <t>2023-10-06T11:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,7 +93,9 @@
 - used for Lab Site. In FHIR R4, the Lab site needs to go into .performer which can't take a Location. (TechnicalDebt)
 - always a contained resource, so not exposed RESTfully
 Map to [VIA labSiteID](StructureDefinition-VA.MHV.PHR.organization-mappings.html#mappings-for-via-to-mhv-fhir-phr-labsiteto)
-Map to [HDR PerformingOrganization](StructureDefinition-VA.MHV.PHR.organization-mappings.html#mappings-for-hdr-to-mhv-fhir-phr-performingorganization)</t>
+Map to [HDR PerformingOrganization](StructureDefinition-VA.MHV.PHR.organization-mappings.html#mappings-for-hdr-to-mhv-fhir-phr-performingorganization)
+HDR IntoleranceCondition has an element `recordSource` with the identifier of the facility the allergy was recorded.  Given that this does not include a friendly name, but MHV has a manually managed table with this, then we will
+populate the Organization.name with the value from that table (when it is available) - MHV FACILITY_INFO table {FACILITY_INFO.NAME}</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -173,6 +175,9 @@
     <t>PerformingOrganization</t>
   </si>
   <si>
+    <t>recordSource</t>
+  </si>
+  <si>
     <t>Organization.id</t>
   </si>
   <si>
@@ -568,6 +573,9 @@
   </si>
   <si>
     <t>{identifier.stationNumber}</t>
+  </si>
+  <si>
+    <t>{identifier.universalId}</t>
   </si>
   <si>
     <t>Organization.identifier.period</t>
@@ -793,6 +801,9 @@
   </si>
   <si>
     <t>{identifier.name}</t>
+  </si>
+  <si>
+    <t>MHV FACILITY_INFO table {FACILITY_INFO.NAME}</t>
   </si>
   <si>
     <t>Organization.alias</t>
@@ -1777,7 +1788,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP64"/>
+  <dimension ref="A1:AQ64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1826,6 +1837,7 @@
     <col min="40" max="40" width="16.20703125" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="31.68359375" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="31.68359375" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="45.5078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1947,13 +1959,16 @@
       <c r="AP1" t="s" s="2">
         <v>47</v>
       </c>
+      <c r="AQ1" t="s" s="2">
+        <v>48</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1964,7 +1979,7 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>37</v>
@@ -1973,19 +1988,19 @@
         <v>37</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2035,13 +2050,13 @@
         <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>37</v>
@@ -2065,15 +2080,18 @@
         <v>37</v>
       </c>
       <c r="AP2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ2" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2084,7 +2102,7 @@
         <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>37</v>
@@ -2093,16 +2111,16 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2153,19 +2171,19 @@
         <v>37</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>37</v>
@@ -2183,15 +2201,18 @@
         <v>37</v>
       </c>
       <c r="AP3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ3" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2202,28 +2223,28 @@
         <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2273,19 +2294,19 @@
         <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>37</v>
@@ -2303,15 +2324,18 @@
         <v>37</v>
       </c>
       <c r="AP4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ4" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2322,7 +2346,7 @@
         <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>37</v>
@@ -2334,16 +2358,16 @@
         <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2369,13 +2393,13 @@
         <v>37</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>37</v>
@@ -2393,19 +2417,19 @@
         <v>37</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>37</v>
@@ -2423,26 +2447,29 @@
         <v>37</v>
       </c>
       <c r="AP5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ5" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>37</v>
@@ -2454,16 +2481,16 @@
         <v>37</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2513,25 +2540,25 @@
         <v>37</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>37</v>
@@ -2543,19 +2570,22 @@
         <v>37</v>
       </c>
       <c r="AP6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ6" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2574,16 +2604,16 @@
         <v>37</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2633,7 +2663,7 @@
         <v>37</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
@@ -2651,7 +2681,7 @@
         <v>37</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>37</v>
@@ -2663,19 +2693,22 @@
         <v>37</v>
       </c>
       <c r="AP7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ7" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2694,16 +2727,16 @@
         <v>37</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2753,7 +2786,7 @@
         <v>37</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
@@ -2765,13 +2798,13 @@
         <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>37</v>
@@ -2783,19 +2816,22 @@
         <v>37</v>
       </c>
       <c r="AP8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ8" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2808,25 +2844,25 @@
         <v>37</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>37</v>
@@ -2875,7 +2911,7 @@
         <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -2887,13 +2923,13 @@
         <v>37</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>37</v>
@@ -2905,15 +2941,18 @@
         <v>37</v>
       </c>
       <c r="AP9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ9" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2921,34 +2960,34 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>37</v>
@@ -2985,17 +3024,17 @@
         <v>37</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -3004,36 +3043,39 @@
         <v>39</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ10" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3044,7 +3086,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>37</v>
@@ -3056,13 +3098,13 @@
         <v>37</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3113,13 +3155,13 @@
         <v>37</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>37</v>
@@ -3131,7 +3173,7 @@
         <v>37</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>37</v>
@@ -3143,19 +3185,22 @@
         <v>37</v>
       </c>
       <c r="AP11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ11" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3174,16 +3219,16 @@
         <v>37</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3221,19 +3266,19 @@
         <v>37</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
@@ -3245,13 +3290,13 @@
         <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>37</v>
@@ -3263,15 +3308,18 @@
         <v>37</v>
       </c>
       <c r="AP12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ12" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3282,31 +3330,31 @@
         <v>38</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>37</v>
@@ -3331,13 +3379,13 @@
         <v>37</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>37</v>
@@ -3355,25 +3403,25 @@
         <v>37</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>37</v>
@@ -3382,18 +3430,21 @@
         <v>37</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="AQ13" t="s" s="2">
+        <v>141</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3404,7 +3455,7 @@
         <v>38</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>37</v>
@@ -3413,22 +3464,22 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>37</v>
@@ -3453,13 +3504,13 @@
         <v>37</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>37</v>
@@ -3477,25 +3528,25 @@
         <v>37</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>37</v>
@@ -3507,15 +3558,18 @@
         <v>37</v>
       </c>
       <c r="AP14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ14" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3526,31 +3580,31 @@
         <v>38</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>37</v>
@@ -3563,7 +3617,7 @@
         <v>37</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U15" t="s" s="2">
         <v>37</v>
@@ -3599,45 +3653,48 @@
         <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AQ15" t="s" s="2">
+        <v>163</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3648,28 +3705,28 @@
         <v>38</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3683,7 +3740,7 @@
         <v>37</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>37</v>
@@ -3719,45 +3776,48 @@
         <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="AQ16" t="s" s="2">
+        <v>175</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3768,7 +3828,7 @@
         <v>38</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>37</v>
@@ -3777,16 +3837,16 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3837,28 +3897,28 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>37</v>
@@ -3867,15 +3927,18 @@
         <v>37</v>
       </c>
       <c r="AP17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ17" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3886,7 +3949,7 @@
         <v>38</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>37</v>
@@ -3895,19 +3958,19 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3957,28 +4020,28 @@
         <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>37</v>
@@ -3987,18 +4050,21 @@
         <v>37</v>
       </c>
       <c r="AP18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ18" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>37</v>
@@ -4008,29 +4074,29 @@
         <v>38</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>37</v>
@@ -4040,7 +4106,7 @@
         <v>37</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>37</v>
@@ -4079,7 +4145,7 @@
         <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>38</v>
@@ -4088,39 +4154,42 @@
         <v>39</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ19" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>37</v>
@@ -4130,7 +4199,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>37</v>
@@ -4139,20 +4208,20 @@
         <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>37</v>
@@ -4162,7 +4231,7 @@
         <v>37</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>37</v>
@@ -4201,7 +4270,7 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>38</v>
@@ -4210,39 +4279,42 @@
         <v>39</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ20" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>37</v>
@@ -4255,28 +4327,28 @@
         <v>39</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>37</v>
@@ -4286,7 +4358,7 @@
         <v>37</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>37</v>
@@ -4325,7 +4397,7 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>38</v>
@@ -4334,36 +4406,39 @@
         <v>39</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ21" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4374,7 +4449,7 @@
         <v>38</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>37</v>
@@ -4386,13 +4461,13 @@
         <v>37</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4443,13 +4518,13 @@
         <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>37</v>
@@ -4461,7 +4536,7 @@
         <v>37</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>37</v>
@@ -4473,19 +4548,22 @@
         <v>37</v>
       </c>
       <c r="AP22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ22" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4504,16 +4582,16 @@
         <v>37</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4551,19 +4629,19 @@
         <v>37</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
@@ -4575,13 +4653,13 @@
         <v>37</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>37</v>
@@ -4593,15 +4671,18 @@
         <v>37</v>
       </c>
       <c r="AP23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ23" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4612,31 +4693,31 @@
         <v>38</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>37</v>
@@ -4646,7 +4727,7 @@
         <v>37</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>37</v>
@@ -4661,13 +4742,13 @@
         <v>37</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>37</v>
@@ -4685,25 +4766,25 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>37</v>
@@ -4715,15 +4796,18 @@
         <v>37</v>
       </c>
       <c r="AP24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ24" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4734,7 +4818,7 @@
         <v>38</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>37</v>
@@ -4743,22 +4827,22 @@
         <v>37</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>37</v>
@@ -4783,13 +4867,13 @@
         <v>37</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>37</v>
@@ -4807,25 +4891,25 @@
         <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>37</v>
@@ -4837,15 +4921,18 @@
         <v>37</v>
       </c>
       <c r="AP25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ25" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4853,10 +4940,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>37</v>
@@ -4865,22 +4952,22 @@
         <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>37</v>
@@ -4893,7 +4980,7 @@
         <v>37</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>37</v>
@@ -4929,28 +5016,28 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>37</v>
@@ -4959,15 +5046,18 @@
         <v>37</v>
       </c>
       <c r="AP26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ26" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4978,7 +5068,7 @@
         <v>38</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>37</v>
@@ -4987,19 +5077,19 @@
         <v>37</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5013,7 +5103,7 @@
         <v>37</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>37</v>
@@ -5049,28 +5139,28 @@
         <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>37</v>
@@ -5079,15 +5169,18 @@
         <v>37</v>
       </c>
       <c r="AP27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ27" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5098,7 +5191,7 @@
         <v>38</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>37</v>
@@ -5107,16 +5200,16 @@
         <v>37</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5167,28 +5260,28 @@
         <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>37</v>
@@ -5197,15 +5290,18 @@
         <v>37</v>
       </c>
       <c r="AP28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ28" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5216,7 +5312,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>37</v>
@@ -5225,19 +5321,19 @@
         <v>37</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5287,28 +5383,28 @@
         <v>37</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>37</v>
@@ -5317,15 +5413,18 @@
         <v>37</v>
       </c>
       <c r="AP29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ29" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5333,123 +5432,126 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H30" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q30" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH30" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="I30" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="P30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q30" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="AI30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
+      </c>
+      <c r="AQ30" t="s" s="2">
+        <v>225</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5469,22 +5571,22 @@
         <v>37</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>37</v>
@@ -5509,13 +5611,13 @@
         <v>37</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>37</v>
@@ -5533,7 +5635,7 @@
         <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
@@ -5545,33 +5647,36 @@
         <v>37</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ31" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5579,34 +5684,34 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>37</v>
@@ -5655,45 +5760,48 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
+      </c>
+      <c r="AQ32" t="s" s="2">
+        <v>247</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5716,19 +5824,19 @@
         <v>37</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>37</v>
@@ -5777,7 +5885,7 @@
         <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
@@ -5789,13 +5897,13 @@
         <v>37</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>37</v>
@@ -5807,15 +5915,18 @@
         <v>37</v>
       </c>
       <c r="AP33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ33" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5829,7 +5940,7 @@
         <v>39</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>37</v>
@@ -5838,19 +5949,19 @@
         <v>37</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>37</v>
@@ -5899,7 +6010,7 @@
         <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
@@ -5908,19 +6019,19 @@
         <v>39</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>37</v>
@@ -5929,15 +6040,18 @@
         <v>37</v>
       </c>
       <c r="AP34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ34" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5948,7 +6062,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>37</v>
@@ -5960,13 +6074,13 @@
         <v>37</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6017,13 +6131,13 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>37</v>
@@ -6035,7 +6149,7 @@
         <v>37</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>37</v>
@@ -6047,19 +6161,22 @@
         <v>37</v>
       </c>
       <c r="AP35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ35" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6078,16 +6195,16 @@
         <v>37</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6125,19 +6242,19 @@
         <v>37</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>38</v>
@@ -6149,13 +6266,13 @@
         <v>37</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>37</v>
@@ -6167,15 +6284,18 @@
         <v>37</v>
       </c>
       <c r="AP36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ36" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6186,25 +6306,25 @@
         <v>38</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6231,13 +6351,13 @@
         <v>37</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>37</v>
@@ -6255,28 +6375,28 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>37</v>
@@ -6285,15 +6405,18 @@
         <v>37</v>
       </c>
       <c r="AP37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ37" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6304,31 +6427,31 @@
         <v>38</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>37</v>
@@ -6377,28 +6500,28 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>37</v>
@@ -6407,15 +6530,18 @@
         <v>37</v>
       </c>
       <c r="AP38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ38" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6426,31 +6552,31 @@
         <v>38</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>37</v>
@@ -6475,13 +6601,13 @@
         <v>37</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>37</v>
@@ -6499,28 +6625,28 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>37</v>
@@ -6529,15 +6655,18 @@
         <v>37</v>
       </c>
       <c r="AP39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ39" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6548,7 +6677,7 @@
         <v>38</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>37</v>
@@ -6557,19 +6686,19 @@
         <v>37</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6619,25 +6748,25 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>37</v>
@@ -6649,15 +6778,18 @@
         <v>37</v>
       </c>
       <c r="AP40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ40" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6668,7 +6800,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>37</v>
@@ -6677,16 +6809,16 @@
         <v>37</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6737,28 +6869,28 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>37</v>
@@ -6767,15 +6899,18 @@
         <v>37</v>
       </c>
       <c r="AP41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ41" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6789,7 +6924,7 @@
         <v>39</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>37</v>
@@ -6798,19 +6933,19 @@
         <v>37</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>37</v>
@@ -6859,7 +6994,7 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
@@ -6868,19 +7003,19 @@
         <v>39</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>37</v>
@@ -6889,15 +7024,18 @@
         <v>37</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
+      </c>
+      <c r="AQ42" t="s" s="2">
+        <v>37</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6908,7 +7046,7 @@
         <v>38</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>37</v>
@@ -6920,13 +7058,13 @@
         <v>37</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6977,13 +7115,13 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>37</v>
@@ -6995,7 +7133,7 @@
         <v>37</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>37</v>
@@ -7007,19 +7145,22 @@
         <v>37</v>
       </c>
       <c r="AP43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ43" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7038,16 +7179,16 @@
         <v>37</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7085,19 +7226,19 @@
         <v>37</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
@@ -7109,13 +7250,13 @@
         <v>37</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>37</v>
@@ -7127,15 +7268,18 @@
         <v>37</v>
       </c>
       <c r="AP44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ44" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7146,31 +7290,31 @@
         <v>38</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>37</v>
@@ -7183,7 +7327,7 @@
         <v>37</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>37</v>
@@ -7195,13 +7339,13 @@
         <v>37</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>37</v>
@@ -7219,28 +7363,28 @@
         <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>37</v>
@@ -7249,15 +7393,18 @@
         <v>37</v>
       </c>
       <c r="AP45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ45" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7268,7 +7415,7 @@
         <v>38</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>37</v>
@@ -7277,19 +7424,19 @@
         <v>37</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7303,7 +7450,7 @@
         <v>37</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>37</v>
@@ -7315,13 +7462,13 @@
         <v>37</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>37</v>
@@ -7339,25 +7486,25 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>37</v>
@@ -7369,15 +7516,18 @@
         <v>37</v>
       </c>
       <c r="AP46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ46" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7388,7 +7538,7 @@
         <v>38</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>37</v>
@@ -7397,22 +7547,22 @@
         <v>37</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>37</v>
@@ -7425,7 +7575,7 @@
         <v>37</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>37</v>
@@ -7461,25 +7611,25 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>37</v>
@@ -7491,15 +7641,18 @@
         <v>37</v>
       </c>
       <c r="AP47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ47" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7510,25 +7663,25 @@
         <v>38</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7543,7 +7696,7 @@
         <v>37</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>37</v>
@@ -7579,7 +7732,7 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
@@ -7591,16 +7744,16 @@
         <v>37</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>37</v>
@@ -7609,44 +7762,47 @@
         <v>37</v>
       </c>
       <c r="AP48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ48" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7661,7 +7817,7 @@
         <v>37</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>37</v>
@@ -7697,28 +7853,28 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>37</v>
@@ -7727,26 +7883,29 @@
         <v>37</v>
       </c>
       <c r="AP49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ49" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>37</v>
@@ -7755,19 +7914,19 @@
         <v>37</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7781,7 +7940,7 @@
         <v>37</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>37</v>
@@ -7817,25 +7976,25 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>37</v>
@@ -7847,44 +8006,47 @@
         <v>37</v>
       </c>
       <c r="AP50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ50" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7911,13 +8073,13 @@
         <v>37</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>37</v>
@@ -7935,28 +8097,28 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>37</v>
@@ -7965,44 +8127,47 @@
         <v>37</v>
       </c>
       <c r="AP51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ51" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8017,7 +8182,7 @@
         <v>37</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>37</v>
@@ -8053,28 +8218,28 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>37</v>
@@ -8083,15 +8248,18 @@
         <v>37</v>
       </c>
       <c r="AP52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ52" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8102,28 +8270,28 @@
         <v>38</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8173,28 +8341,28 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>37</v>
@@ -8203,15 +8371,18 @@
         <v>37</v>
       </c>
       <c r="AP53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ53" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8222,7 +8393,7 @@
         <v>38</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>37</v>
@@ -8231,20 +8402,20 @@
         <v>37</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>37</v>
@@ -8257,7 +8428,7 @@
         <v>37</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>37</v>
@@ -8293,28 +8464,28 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>37</v>
@@ -8323,15 +8494,18 @@
         <v>37</v>
       </c>
       <c r="AP54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ54" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8342,7 +8516,7 @@
         <v>38</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>37</v>
@@ -8351,20 +8525,20 @@
         <v>37</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>37</v>
@@ -8413,28 +8587,28 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>37</v>
@@ -8443,15 +8617,18 @@
         <v>37</v>
       </c>
       <c r="AP55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ55" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8474,19 +8651,19 @@
         <v>37</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>37</v>
@@ -8535,7 +8712,7 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>38</v>
@@ -8547,13 +8724,13 @@
         <v>37</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>37</v>
@@ -8565,15 +8742,18 @@
         <v>37</v>
       </c>
       <c r="AP56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ56" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8584,7 +8764,7 @@
         <v>38</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>37</v>
@@ -8596,13 +8776,13 @@
         <v>37</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8653,13 +8833,13 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>37</v>
@@ -8671,7 +8851,7 @@
         <v>37</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>37</v>
@@ -8683,19 +8863,22 @@
         <v>37</v>
       </c>
       <c r="AP57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ57" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8714,16 +8897,16 @@
         <v>37</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8773,7 +8956,7 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
@@ -8785,13 +8968,13 @@
         <v>37</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>37</v>
@@ -8803,19 +8986,22 @@
         <v>37</v>
       </c>
       <c r="AP58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ58" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8828,25 +9014,25 @@
         <v>37</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>37</v>
@@ -8895,7 +9081,7 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
@@ -8907,13 +9093,13 @@
         <v>37</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>37</v>
@@ -8925,15 +9111,18 @@
         <v>37</v>
       </c>
       <c r="AP59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ59" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8944,7 +9133,7 @@
         <v>38</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>37</v>
@@ -8956,17 +9145,17 @@
         <v>37</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>37</v>
@@ -8991,13 +9180,13 @@
         <v>37</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>37</v>
@@ -9015,25 +9204,25 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>37</v>
@@ -9045,15 +9234,18 @@
         <v>37</v>
       </c>
       <c r="AP60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ60" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9064,7 +9256,7 @@
         <v>38</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>37</v>
@@ -9076,17 +9268,17 @@
         <v>37</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>37</v>
@@ -9135,25 +9327,25 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>37</v>
@@ -9165,15 +9357,18 @@
         <v>37</v>
       </c>
       <c r="AP61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ61" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9196,17 +9391,17 @@
         <v>37</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>37</v>
@@ -9255,7 +9450,7 @@
         <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>38</v>
@@ -9267,13 +9462,13 @@
         <v>37</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>37</v>
@@ -9285,15 +9480,18 @@
         <v>37</v>
       </c>
       <c r="AP62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ62" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9304,7 +9502,7 @@
         <v>38</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>37</v>
@@ -9316,17 +9514,17 @@
         <v>37</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>37</v>
@@ -9375,25 +9573,25 @@
         <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>37</v>
@@ -9405,15 +9603,18 @@
         <v>37</v>
       </c>
       <c r="AP63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ63" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9436,17 +9637,17 @@
         <v>37</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>37</v>
@@ -9495,7 +9696,7 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>38</v>
@@ -9507,13 +9708,13 @@
         <v>37</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>37</v>
@@ -9525,11 +9726,14 @@
         <v>37</v>
       </c>
       <c r="AP64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ64" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP64">
+  <autoFilter ref="A1:AQ64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.5</t>
+    <t>0.2.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-06T11:35:14-05:00</t>
+    <t>2023-10-20T10:16:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7</t>
+    <t>0.2.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T14:14:41-06:00</t>
+    <t>2023-11-30T14:00:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8</t>
+    <t>0.2.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-30T14:00:30-06:00</t>
+    <t>2023-12-15T17:23:12-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9</t>
+    <t>0.2.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T17:23:12-06:00</t>
+    <t>2023-12-22T09:54:24-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.10</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-22T09:54:24-06:00</t>
+    <t>2024-01-19T11:04:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2-ci</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T11:04:10-06:00</t>
+    <t>2024-01-29T11:03:46-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2-ci</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:03:46-06:00</t>
+    <t>2024-01-29T11:44:59-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:44:59-06:00</t>
+    <t>2024-02-26T14:52:47-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T14:52:47-06:00</t>
+    <t>2024-03-18T14:58:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T14:58:21-05:00</t>
+    <t>2024-03-29T15:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -248,6 +248,12 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: VIA to mhv-fhir-phr</t>
+  </si>
+  <si>
+    <t>Mapping: HDR to mhv-fhir-phr</t>
+  </si>
+  <si>
     <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
@@ -258,12 +264,6 @@
   </si>
   <si>
     <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: VIA to mhv-fhir-phr</t>
-  </si>
-  <si>
-    <t>Mapping: HDR to mhv-fhir-phr</t>
   </si>
   <si>
     <t/>
@@ -289,19 +289,19 @@
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
   </si>
   <si>
+    <t>labSiteTO</t>
+  </si>
+  <si>
+    <t>PerformingOrganization</t>
+  </si>
+  <si>
+    <t>recordSource</t>
+  </si>
+  <si>
     <t>(also see master files messages)</t>
   </si>
   <si>
     <t>Organization(classCode=ORG, determinerCode=INST)</t>
-  </si>
-  <si>
-    <t>labSiteTO</t>
-  </si>
-  <si>
-    <t>PerformingOrganization</t>
-  </si>
-  <si>
-    <t>recordSource</t>
   </si>
   <si>
     <t>Organization.id</t>
@@ -595,10 +595,10 @@
     <t>Identifier.use</t>
   </si>
   <si>
+    <t>`usual`</t>
+  </si>
+  <si>
     <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>`usual`</t>
   </si>
   <si>
     <t>Organization.identifier.type</t>
@@ -656,6 +656,9 @@
     <t>Identifier.system</t>
   </si>
   <si>
+    <t>`urn:oid:2.16.840.1.113883.4.349`</t>
+  </si>
+  <si>
     <t>CX.4 / EI-2-4</t>
   </si>
   <si>
@@ -665,9 +668,6 @@
     <t>./IdentifierType</t>
   </si>
   <si>
-    <t>`urn:oid:2.16.840.1.113883.4.349`</t>
-  </si>
-  <si>
     <t>Organization.identifier.value</t>
   </si>
   <si>
@@ -686,6 +686,15 @@
     <t>Identifier.value</t>
   </si>
   <si>
+    <t>`LabSiteTO.` + {LabSiteTO.id}</t>
+  </si>
+  <si>
+    <t>{identifier.stationNumber}</t>
+  </si>
+  <si>
+    <t>{identifier.universalId}</t>
+  </si>
+  <si>
     <t>CX.1 / EI.1</t>
   </si>
   <si>
@@ -693,15 +702,6 @@
   </si>
   <si>
     <t>./Value</t>
-  </si>
-  <si>
-    <t>`LabSiteTO.` + {LabSiteTO.id}</t>
-  </si>
-  <si>
-    <t>{identifier.stationNumber}</t>
-  </si>
-  <si>
-    <t>{identifier.universalId}</t>
   </si>
   <si>
     <t>Organization.identifier.period</t>
@@ -849,6 +849,9 @@
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
   </si>
   <si>
+    <t>`true`</t>
+  </si>
+  <si>
     <t>No equivalent in HL7 v2</t>
   </si>
   <si>
@@ -859,9 +862,6 @@
   </si>
   <si>
     <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>`true`</t>
   </si>
   <si>
     <t>Organization.type</t>
@@ -914,6 +914,15 @@
     <t>Need to use the name as the label of the organization.</t>
   </si>
   <si>
+    <t>Lab Site {number}</t>
+  </si>
+  <si>
+    <t>{identifier.name}</t>
+  </si>
+  <si>
+    <t>MHV FACILITY_INFO table {FACILITY_INFO.NAME}</t>
+  </si>
+  <si>
     <t>XON.1</t>
   </si>
   <si>
@@ -921,15 +930,6 @@
   </si>
   <si>
     <t>.PreferredName/Name</t>
-  </si>
-  <si>
-    <t>Lab Site {number}</t>
-  </si>
-  <si>
-    <t>{identifier.name}</t>
-  </si>
-  <si>
-    <t>MHV FACILITY_INFO table {FACILITY_INFO.NAME}</t>
   </si>
   <si>
     <t>Organization.alias</t>
@@ -1139,6 +1139,9 @@
 org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
   </si>
   <si>
+    <t>{address}</t>
+  </si>
+  <si>
     <t>ORC-23?</t>
   </si>
   <si>
@@ -1146,9 +1149,6 @@
   </si>
   <si>
     <t>./PrimaryAddress and ./OtherAddresses</t>
-  </si>
-  <si>
-    <t>{address}</t>
   </si>
   <si>
     <t>Organization.address.id</t>
@@ -1958,13 +1958,13 @@
     <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="102.75390625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="211.14453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="31.68359375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="31.68359375" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="45.5078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="31.68359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="31.68359375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="45.5078125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="102.75390625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="211.14453125" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2083,16 +2083,16 @@
         <v>74</v>
       </c>
       <c r="AM1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AN1" t="s" s="1">
         <v>75</v>
       </c>
-      <c r="AN1" t="s" s="1">
+      <c r="AO1" t="s" s="1">
         <v>76</v>
       </c>
-      <c r="AO1" t="s" s="1">
+      <c r="AP1" t="s" s="1">
         <v>77</v>
-      </c>
-      <c r="AP1" t="s" s="1">
-        <v>78</v>
       </c>
       <c r="AQ1" t="s" s="1">
         <v>78</v>
@@ -2206,19 +2206,19 @@
         <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AN2" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AO2" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AP2" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="AN2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO2" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AP2" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="AQ2" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" hidden="true">
@@ -2816,16 +2816,16 @@
         <v>79</v>
       </c>
       <c r="AL7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO7" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO7" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP7" t="s" s="2">
         <v>79</v>
@@ -2939,16 +2939,16 @@
         <v>79</v>
       </c>
       <c r="AL8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO8" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO8" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP8" t="s" s="2">
         <v>79</v>
@@ -3062,16 +3062,16 @@
         <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AM9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO9" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP9" t="s" s="2">
         <v>79</v>
@@ -3187,16 +3187,16 @@
         <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO10" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AM10" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO10" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>79</v>
@@ -3307,25 +3307,25 @@
         <v>104</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN11" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AP11" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AQ11" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AO11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AQ11" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="12" hidden="true">
@@ -3431,16 +3431,16 @@
         <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO12" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO12" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>79</v>
@@ -3554,16 +3554,16 @@
         <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO13" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>79</v>
@@ -3676,25 +3676,25 @@
         <v>104</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>182</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>183</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="AQ14" t="s" s="2">
-        <v>183</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" hidden="true">
@@ -3801,19 +3801,19 @@
         <v>104</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AL15" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AO15" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>79</v>
@@ -3929,22 +3929,22 @@
         <v>202</v>
       </c>
       <c r="AL16" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>205</v>
       </c>
       <c r="AQ16" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" hidden="true">
@@ -4058,16 +4058,16 @@
         <v>214</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AQ17" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" hidden="true">
@@ -4170,22 +4170,22 @@
         <v>104</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AP18" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ18" t="s" s="2">
         <v>79</v>
@@ -4293,22 +4293,22 @@
         <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AP19" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ19" t="s" s="2">
         <v>79</v>
@@ -4418,25 +4418,25 @@
         <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AP20" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AQ20" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AQ20" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="21" hidden="true">
@@ -4543,25 +4543,25 @@
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AP21" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AQ21" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AQ21" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="22" hidden="true">
@@ -4670,25 +4670,25 @@
         <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AP22" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AN22" t="s" s="2">
+      <c r="AQ22" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AQ22" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="23" hidden="true">
@@ -4794,16 +4794,16 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO23" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>79</v>
@@ -4917,16 +4917,16 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO24" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>79</v>
@@ -5039,19 +5039,19 @@
         <v>104</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AL25" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AO25" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>79</v>
@@ -5164,19 +5164,19 @@
         <v>104</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AL26" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AO26" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>79</v>
@@ -5289,22 +5289,22 @@
         <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AN27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AP27" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="AQ27" t="s" s="2">
         <v>79</v>
@@ -5412,22 +5412,22 @@
         <v>104</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="AQ28" t="s" s="2">
         <v>79</v>
@@ -5533,22 +5533,22 @@
         <v>104</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AP29" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ29" t="s" s="2">
         <v>79</v>
@@ -5656,22 +5656,22 @@
         <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AP30" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ30" t="s" s="2">
         <v>79</v>
@@ -5786,19 +5786,19 @@
         <v>263</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AP31" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AQ31" t="s" s="2">
         <v>267</v>
@@ -5908,25 +5908,25 @@
         <v>104</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AP32" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AQ32" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AQ32" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="33" hidden="true">
@@ -6042,16 +6042,16 @@
         <v>286</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>289</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" hidden="true">
@@ -6161,7 +6161,7 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6170,7 +6170,7 @@
         <v>79</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>79</v>
+        <v>288</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>79</v>
@@ -6283,22 +6283,22 @@
         <v>302</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AP35" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ35" t="s" s="2">
         <v>79</v>
@@ -6407,16 +6407,16 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO36" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>79</v>
@@ -6530,16 +6530,16 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO37" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>79</v>
@@ -6648,22 +6648,22 @@
         <v>104</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AP38" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ38" t="s" s="2">
         <v>79</v>
@@ -6773,22 +6773,22 @@
         <v>104</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AM39" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AP39" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="AQ39" t="s" s="2">
         <v>79</v>
@@ -6898,22 +6898,22 @@
         <v>104</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AP40" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ40" t="s" s="2">
         <v>79</v>
@@ -7021,19 +7021,19 @@
         <v>104</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>79</v>
@@ -7142,22 +7142,22 @@
         <v>104</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AO42" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AP42" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ42" t="s" s="2">
         <v>79</v>
@@ -7267,19 +7267,19 @@
         <v>355</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AO43" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>359</v>
@@ -7391,16 +7391,16 @@
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO44" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>79</v>
@@ -7514,16 +7514,16 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO45" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>79</v>
@@ -7636,22 +7636,22 @@
         <v>104</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AO46" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AP46" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP46" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ46" t="s" s="2">
         <v>79</v>
@@ -7759,19 +7759,19 @@
         <v>104</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AO47" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>79</v>
@@ -7884,19 +7884,19 @@
         <v>104</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AO48" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>79</v>
@@ -8005,22 +8005,22 @@
         <v>104</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AO49" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AP49" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ49" t="s" s="2">
         <v>79</v>
@@ -8126,22 +8126,22 @@
         <v>104</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AO50" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AP50" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ50" t="s" s="2">
         <v>79</v>
@@ -8249,19 +8249,19 @@
         <v>104</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AO51" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>79</v>
@@ -8370,22 +8370,22 @@
         <v>104</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AP52" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ52" t="s" s="2">
         <v>79</v>
@@ -8491,22 +8491,22 @@
         <v>104</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AO53" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AP53" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP53" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ53" t="s" s="2">
         <v>79</v>
@@ -8614,22 +8614,22 @@
         <v>104</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AP54" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ54" t="s" s="2">
         <v>79</v>
@@ -8737,22 +8737,22 @@
         <v>104</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AO55" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AP55" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP55" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ55" t="s" s="2">
         <v>79</v>
@@ -8860,22 +8860,22 @@
         <v>104</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AO56" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AP56" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP56" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ56" t="s" s="2">
         <v>79</v>
@@ -8988,16 +8988,16 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO57" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>79</v>
@@ -9109,16 +9109,16 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO58" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>79</v>
@@ -9232,16 +9232,16 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO59" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>79</v>
@@ -9357,16 +9357,16 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO60" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>79</v>
@@ -9480,16 +9480,16 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO61" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>79</v>
@@ -9600,19 +9600,19 @@
         <v>104</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AO62" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>79</v>
@@ -9723,19 +9723,19 @@
         <v>104</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="AL63" t="s" s="2">
+      <c r="AO63" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>79</v>
@@ -9846,19 +9846,19 @@
         <v>104</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>79</v>
@@ -9972,16 +9972,16 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO65" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>79</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-18T11:51:10-05:00</t>
+    <t>2024-06-10T12:47:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T12:47:52-05:00</t>
+    <t>2024-07-12T09:49:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
